--- a/medicine/Enfance/Mad_H._Giraud/Mad_H._Giraud.xlsx
+++ b/medicine/Enfance/Mad_H._Giraud/Mad_H._Giraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mad H. Giraud, pseudonyme de Madeleine Gélinet, née le 13 août 1880 à Alger et morte le 18 juin 1961 à Paris, est une écrivaine et directrice d'hebdomadaire pour enfants française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est aussi connue sous les noms de Mad Giraud, Madeleine H. Giraud, Mad H.-Giraud, Tante Mad, Jacques Fabrice, Mme H. Girau, etc.
 Elle a été directrice de La Semaine de Suzette de 1927 à 1949.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Huit jours dans un grenier, Paris, Librairie Delagrave, 1930
 Suzette et le Bon Ton, Paris, Gautier-Languereau, 1933
@@ -551,18 +567,86 @@
 Histoire de Tim-le-Dégourdi et de Têtu-la-Bourrique, Paris, Gautier-Languereau, 1945
 Nuit, Paris, Gautier-Languereau, 1945
 Deux belles histoires : Dame Rose et chevalier Bleu. La Petite fée veut rester endormie, Paris, Gautier-Languereau, 1945
-Pour chasser l'ennemi !, Paris, Gautier-Languereau, 1946
-Série Sir Jerry
-Sir Jerry détective, Paris, Gautier-Languereau, 1935
+Pour chasser l'ennemi !, Paris, Gautier-Languereau, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mad_H._Giraud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mad_H._Giraud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Sir Jerry</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sir Jerry détective, Paris, Gautier-Languereau, 1935
 Les Étranges Vacances de sir Jerry, Paris, Gautier-Languereau, 1936
 Sir Jerry et l’affreux Léonard, Paris, Gautier-Languereau, 1937
 La Mystérieuse Disparition de Sir Jerry, Paris, Gautier-Languereau, 1938
 L’Inévitable Sir Jerry, Paris, Gautier-Languereau, 1939
 La Périlleuse Mission du capitaine Jerry, Paris, Gautier-Languereau, 1940
 Jerry dans l’ombre, Paris, Gautier-Languereau, 1948
-Sir Jerry et les Philippines, Paris, Gautier-Languereau, 1949
-Traductions
-Contes d’Andersen, Paris, Librairie Delagrave, 1930
+Sir Jerry et les Philippines, Paris, Gautier-Languereau, 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mad_H._Giraud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mad_H._Giraud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Contes d’Andersen, Paris, Librairie Delagrave, 1930
 Les Filles du Dr March de Louisa May Alcott, Paris, Pré-aux-Clercs, 1945</t>
         </is>
       </c>
